--- a/assets/data/website-coding-stats.xlsx
+++ b/assets/data/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB4C0DF-BF49-4291-A823-075E0B014D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6CDA43-35DF-45F3-A029-E8B7B4DEFC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -391,7 +391,12 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -490,7 +495,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{123D4FE4-B81D-46E7-87F5-2AB911600C24}">
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -750,13 +755,13 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.8478260869565211E-2</c:v>
+                  <c:v>7.0572916666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5893719806763288E-2</c:v>
+                  <c:v>4.7280092592592589E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4227053140096619E-2</c:v>
+                  <c:v>5.2343750000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17607638888888891</c:v>
@@ -1024,16 +1029,16 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.575</c:v>
+                  <c:v>1.6937499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0555555555555556</c:v>
+                  <c:v>1.1347222222222222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2472222222222222</c:v>
+                  <c:v>1.2562500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8777777777777778</c:v>
+                  <c:v>4.0847222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,10 +1325,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
@@ -2146,17 +2151,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E27" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A4:E27" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E28" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A4:E28" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E23">
     <sortCondition ref="A4:A23"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{417EF49C-801F-4D83-86C8-3F89B1DCFBF5}" name="Date" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A818B7F8-0306-4FE1-ACC7-EA93D3473B79}" name="HTML" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E36F0734-B75F-42EA-8B6A-30D2C867766D}" name="CSS" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{854C3542-D24F-4042-9AE0-E066EB06DE43}" name="JS" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B3868164-4A8C-4DED-92C9-2E34067CD701}" name="Total" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{417EF49C-801F-4D83-86C8-3F89B1DCFBF5}" name="Date" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A818B7F8-0306-4FE1-ACC7-EA93D3473B79}" name="HTML" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E36F0734-B75F-42EA-8B6A-30D2C867766D}" name="CSS" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{854C3542-D24F-4042-9AE0-E066EB06DE43}" name="JS" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B3868164-4A8C-4DED-92C9-2E34067CD701}" name="Total" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2462,7 +2467,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2551,8 +2556,8 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(B$4:B$27)</f>
-        <v>6.8478260869565211E-2</v>
+        <f>AVERAGE(B$4:B$28)</f>
+        <v>7.0572916666666666E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2576,8 +2581,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <f>AVERAGE(C$4:C$27)</f>
-        <v>4.5893719806763288E-2</v>
+        <f>AVERAGE(C$4:C$28)</f>
+        <v>4.7280092592592589E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2601,8 +2606,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D$4:D$27)</f>
-        <v>5.4227053140096619E-2</v>
+        <f>AVERAGE(D$4:D$28)</f>
+        <v>5.2343750000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2692,8 +2697,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(B$4:B$27)</f>
-        <v>1.575</v>
+        <f>SUM(B$4:B$28)</f>
+        <v>1.6937499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2717,8 +2722,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(C$4:C$27)</f>
-        <v>1.0555555555555556</v>
+        <f>SUM(C$4:C$28)</f>
+        <v>1.1347222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2742,8 +2747,8 @@
         <v>3</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(D$4:D$27)</f>
-        <v>1.2472222222222222</v>
+        <f>SUM(D$4:D$28)</f>
+        <v>1.2562500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2768,7 +2773,7 @@
       </c>
       <c r="H14" s="13">
         <f>SUM(H11+H12+H13)</f>
-        <v>3.8777777777777778</v>
+        <v>4.0847222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2833,8 +2838,8 @@
         <v>11</v>
       </c>
       <c r="H17" s="18">
-        <f>COUNTA(E5:E27)</f>
-        <v>23</v>
+        <f>COUNTA(E5:E28)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2859,7 +2864,7 @@
       </c>
       <c r="H18" s="19">
         <f ca="1">H19-H17</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2999,7 +3004,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" ref="E25:E27" si="1">B25+C25+D25</f>
+        <f t="shared" ref="E25:E28" si="1">B25+C25+D25</f>
         <v>4.791666666666667E-2</v>
       </c>
     </row>
@@ -3040,11 +3045,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="24">
+        <v>44896</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="C28" s="25">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="D28" s="25">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="1"/>
+        <v>0.20694444444444446</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
@@ -3062,7 +3078,7 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B27">
+  <conditionalFormatting sqref="B4:B28">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3072,7 +3088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C27">
+  <conditionalFormatting sqref="C4:C28">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3082,7 +3098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D27">
+  <conditionalFormatting sqref="D4:D28">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3092,7 +3108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E27">
+  <conditionalFormatting sqref="E4:E28">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3102,8 +3118,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E27">
-    <cfRule type="aboveAverage" dxfId="14" priority="43"/>
+  <conditionalFormatting sqref="E5:E28">
+    <cfRule type="aboveAverage" dxfId="15" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G21" r:id="rId1" display="Wakatime" xr:uid="{3D343FDD-423F-4C9B-9351-F003B55B9401}"/>

--- a/assets/data/website-coding-stats.xlsx
+++ b/assets/data/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6CDA43-35DF-45F3-A029-E8B7B4DEFC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217FA55B-EF7A-4496-AB11-E6D5A5688E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -755,13 +755,13 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.0572916666666666E-2</c:v>
+                  <c:v>6.9722222222222213E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7280092592592589E-2</c:v>
+                  <c:v>4.5749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2343750000000001E-2</c:v>
+                  <c:v>5.0666666666666672E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17607638888888891</c:v>
@@ -1029,16 +1029,16 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.6937499999999999</c:v>
+                  <c:v>1.7430555555555554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1347222222222222</c:v>
+                  <c:v>1.14375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2562500000000001</c:v>
+                  <c:v>1.2666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0847222222222221</c:v>
+                  <c:v>4.1534722222222218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,13 +1325,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,8 +2151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E28" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A4:E28" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E29" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A4:E29" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E23">
     <sortCondition ref="A4:A23"/>
   </sortState>
@@ -2467,7 +2467,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,8 +2556,8 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(B$4:B$28)</f>
-        <v>7.0572916666666666E-2</v>
+        <f>AVERAGE(B$4:B$29)</f>
+        <v>6.9722222222222213E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2581,8 +2581,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <f>AVERAGE(C$4:C$28)</f>
-        <v>4.7280092592592589E-2</v>
+        <f>AVERAGE(C$4:C$29)</f>
+        <v>4.5749999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2606,8 +2606,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D$4:D$28)</f>
-        <v>5.2343750000000001E-2</v>
+        <f>AVERAGE(D$4:D$29)</f>
+        <v>5.0666666666666672E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2697,8 +2697,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(B$4:B$28)</f>
-        <v>1.6937499999999999</v>
+        <f>SUM(B$4:B$29)</f>
+        <v>1.7430555555555554</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2722,8 +2722,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(C$4:C$28)</f>
-        <v>1.1347222222222222</v>
+        <f>SUM(C$4:C$29)</f>
+        <v>1.14375</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2747,8 +2747,8 @@
         <v>3</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(D$4:D$28)</f>
-        <v>1.2562500000000001</v>
+        <f>SUM(D$4:D$29)</f>
+        <v>1.2666666666666668</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="H14" s="13">
         <f>SUM(H11+H12+H13)</f>
-        <v>4.0847222222222221</v>
+        <v>4.1534722222222218</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2838,8 +2838,8 @@
         <v>11</v>
       </c>
       <c r="H17" s="18">
-        <f>COUNTA(E5:E28)</f>
-        <v>24</v>
+        <f>COUNTA(E5:E29)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H19" s="21">
         <f ca="1">TODAY()-A5</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3063,11 +3063,22 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="24">
+        <v>44897</v>
+      </c>
+      <c r="B29" s="25">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="C29" s="25">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" ref="E29" si="2">B29+C29+D29</f>
+        <v>6.8750000000000006E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3078,7 +3089,7 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B28">
+  <conditionalFormatting sqref="B4:B29">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3088,7 +3099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C28">
+  <conditionalFormatting sqref="C4:C29">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3098,7 +3109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D28">
+  <conditionalFormatting sqref="D4:D29">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3108,7 +3119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E28">
+  <conditionalFormatting sqref="E4:E29">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3118,7 +3129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E28">
+  <conditionalFormatting sqref="E5:E29">
     <cfRule type="aboveAverage" dxfId="15" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/assets/data/website-coding-stats.xlsx
+++ b/assets/data/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217FA55B-EF7A-4496-AB11-E6D5A5688E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7B728-C9AC-4038-8E52-52C70BFC57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -356,9 +356,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -385,6 +382,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,13 +755,13 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.9722222222222213E-2</c:v>
+                  <c:v>6.8108974358974353E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5749999999999999E-2</c:v>
+                  <c:v>4.4070512820512824E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0666666666666672E-2</c:v>
+                  <c:v>5.3846153846153849E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17607638888888891</c:v>
@@ -1029,16 +1029,16 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7430555555555554</c:v>
+                  <c:v>1.770833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.14375</c:v>
+                  <c:v>1.1458333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2666666666666668</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1534722222222218</c:v>
+                  <c:v>4.3166666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,13 +1325,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,8 +2151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E29" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A4:E29" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E30" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A4:E30" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E23">
     <sortCondition ref="A4:A23"/>
   </sortState>
@@ -2464,7 +2464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8927EC-BC97-4DC3-9498-E2183903979F}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -2483,28 +2483,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
@@ -2530,10 +2530,10 @@
       <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
@@ -2556,8 +2556,8 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(B$4:B$29)</f>
-        <v>6.9722222222222213E-2</v>
+        <f>AVERAGE(B$4:B$30)</f>
+        <v>6.8108974358974353E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2581,8 +2581,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <f>AVERAGE(C$4:C$29)</f>
-        <v>4.5749999999999999E-2</v>
+        <f>AVERAGE(C$4:C$30)</f>
+        <v>4.4070512820512824E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2606,8 +2606,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D$4:D$29)</f>
-        <v>5.0666666666666672E-2</v>
+        <f>AVERAGE(D$4:D$30)</f>
+        <v>5.3846153846153849E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2630,7 +2630,7 @@
       <c r="G8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="36">
         <f>AVERAGE(E$4:E$24)</f>
         <v>0.17607638888888891</v>
       </c>
@@ -2671,10 +2671,10 @@
         <f t="shared" si="0"/>
         <v>0.37569444444444444</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
@@ -2697,8 +2697,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(B$4:B$29)</f>
-        <v>1.7430555555555554</v>
+        <f>SUM(B$4:B$30)</f>
+        <v>1.770833333333333</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2722,8 +2722,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(C$4:C$29)</f>
-        <v>1.14375</v>
+        <f>SUM(C$4:C$30)</f>
+        <v>1.1458333333333335</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2747,8 +2747,8 @@
         <v>3</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(D$4:D$29)</f>
-        <v>1.2666666666666668</v>
+        <f>SUM(D$4:D$30)</f>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="H14" s="13">
         <f>SUM(H11+H12+H13)</f>
-        <v>4.1534722222222218</v>
+        <v>4.3166666666666664</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2812,10 +2812,10 @@
         <f t="shared" si="0"/>
         <v>0.30347222222222225</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="35"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
@@ -2838,8 +2838,8 @@
         <v>11</v>
       </c>
       <c r="H17" s="18">
-        <f>COUNTA(E5:E29)</f>
-        <v>25</v>
+        <f>COUNTA(E5:E30)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H19" s="21">
         <f ca="1">TODAY()-A5</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2928,10 +2928,10 @@
         <f t="shared" si="0"/>
         <v>0.16250000000000001</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
@@ -2950,8 +2950,8 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
@@ -3078,6 +3078,24 @@
       <c r="E29" s="25">
         <f t="shared" ref="E29" si="2">B29+C29+D29</f>
         <v>6.8750000000000006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>44898</v>
+      </c>
+      <c r="B30" s="25">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" ref="E30" si="3">B30+C30+D30</f>
+        <v>0.16319444444444445</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3107,7 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B29">
+  <conditionalFormatting sqref="B4:B30">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3099,7 +3117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C29">
+  <conditionalFormatting sqref="C4:C30">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3109,7 +3127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D29">
+  <conditionalFormatting sqref="D4:D30">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3119,7 +3137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
+  <conditionalFormatting sqref="E4:E30">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3129,7 +3147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E29">
+  <conditionalFormatting sqref="E5:E30">
     <cfRule type="aboveAverage" dxfId="15" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/assets/data/website-coding-stats.xlsx
+++ b/assets/data/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7B728-C9AC-4038-8E52-52C70BFC57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6690A77-3171-41E4-AEAC-D583311BC73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -356,6 +356,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,9 +385,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,13 +755,13 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.8108974358974353E-2</c:v>
+                  <c:v>6.6100823045267473E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4070512820512824E-2</c:v>
+                  <c:v>4.2952674897119347E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3846153846153849E-2</c:v>
+                  <c:v>5.3909465020576135E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17607638888888891</c:v>
@@ -1029,16 +1029,16 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.770833333333333</c:v>
+                  <c:v>1.7847222222222219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1458333333333335</c:v>
+                  <c:v>1.1597222222222223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>1.4555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3166666666666664</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,13 +1325,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,8 +2151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E30" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A4:E30" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E31" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A4:E31" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E23">
     <sortCondition ref="A4:A23"/>
   </sortState>
@@ -2464,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8927EC-BC97-4DC3-9498-E2183903979F}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2483,28 +2483,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
@@ -2530,10 +2530,10 @@
       <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
@@ -2556,8 +2556,8 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(B$4:B$30)</f>
-        <v>6.8108974358974353E-2</v>
+        <f>AVERAGE(B$4:B$31)</f>
+        <v>6.6100823045267473E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2581,8 +2581,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <f>AVERAGE(C$4:C$30)</f>
-        <v>4.4070512820512824E-2</v>
+        <f>AVERAGE(C$4:C$31)</f>
+        <v>4.2952674897119347E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2606,8 +2606,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D$4:D$30)</f>
-        <v>5.3846153846153849E-2</v>
+        <f>AVERAGE(D$4:D$31)</f>
+        <v>5.3909465020576135E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2630,7 +2630,7 @@
       <c r="G8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="27">
         <f>AVERAGE(E$4:E$24)</f>
         <v>0.17607638888888891</v>
       </c>
@@ -2671,10 +2671,10 @@
         <f t="shared" si="0"/>
         <v>0.37569444444444444</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
@@ -2697,8 +2697,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(B$4:B$30)</f>
-        <v>1.770833333333333</v>
+        <f>SUM(B$4:B$31)</f>
+        <v>1.7847222222222219</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2722,8 +2722,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(C$4:C$30)</f>
-        <v>1.1458333333333335</v>
+        <f>SUM(C$4:C$31)</f>
+        <v>1.1597222222222223</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2747,8 +2747,8 @@
         <v>3</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(D$4:D$30)</f>
-        <v>1.4000000000000001</v>
+        <f>SUM(D$4:D$31)</f>
+        <v>1.4555555555555557</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="H14" s="13">
         <f>SUM(H11+H12+H13)</f>
-        <v>4.3166666666666664</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2812,10 +2812,10 @@
         <f t="shared" si="0"/>
         <v>0.30347222222222225</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
@@ -2838,8 +2838,8 @@
         <v>11</v>
       </c>
       <c r="H17" s="18">
-        <f>COUNTA(E5:E30)</f>
-        <v>26</v>
+        <f>COUNTA(E5:E31)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H19" s="21">
         <f ca="1">TODAY()-A5</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2928,10 +2928,10 @@
         <f t="shared" si="0"/>
         <v>0.16250000000000001</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
@@ -2950,8 +2950,8 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
@@ -3096,6 +3096,24 @@
       <c r="E30" s="25">
         <f t="shared" ref="E30" si="3">B30+C30+D30</f>
         <v>0.16319444444444445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
+        <v>44899</v>
+      </c>
+      <c r="B31" s="25">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D31" s="25">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" ref="E31" si="4">B31+C31+D31</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3125,7 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B30">
+  <conditionalFormatting sqref="B4:B31">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3117,7 +3135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C30">
+  <conditionalFormatting sqref="C4:C31">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3127,7 +3145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D30">
+  <conditionalFormatting sqref="D4:D31">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3137,7 +3155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E30">
+  <conditionalFormatting sqref="E4:E31">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3147,7 +3165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E30">
+  <conditionalFormatting sqref="E5:E31">
     <cfRule type="aboveAverage" dxfId="15" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/assets/data/website-coding-stats.xlsx
+++ b/assets/data/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6690A77-3171-41E4-AEAC-D583311BC73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77CC4B6-7165-46D2-B3C0-C29CA27A7092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -398,7 +398,9 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -427,14 +429,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
@@ -446,6 +440,24 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -468,22 +480,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -755,13 +755,13 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.6100823045267473E-2</c:v>
+                  <c:v>6.126792114695339E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2952674897119347E-2</c:v>
+                  <c:v>4.0120967741935486E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3909465020576135E-2</c:v>
+                  <c:v>5.2643369175627244E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17607638888888891</c:v>
@@ -1029,16 +1029,16 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7847222222222219</c:v>
+                  <c:v>1.8993055555555551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1597222222222223</c:v>
+                  <c:v>1.2437500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4555555555555557</c:v>
+                  <c:v>1.6319444444444446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.7750000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,13 +1325,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,17 +2151,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E31" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A4:E31" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E35" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="A4:E35" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E23">
     <sortCondition ref="A4:A23"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{417EF49C-801F-4D83-86C8-3F89B1DCFBF5}" name="Date" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A818B7F8-0306-4FE1-ACC7-EA93D3473B79}" name="HTML" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E36F0734-B75F-42EA-8B6A-30D2C867766D}" name="CSS" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{854C3542-D24F-4042-9AE0-E066EB06DE43}" name="JS" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B3868164-4A8C-4DED-92C9-2E34067CD701}" name="Total" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{417EF49C-801F-4D83-86C8-3F89B1DCFBF5}" name="Date" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A818B7F8-0306-4FE1-ACC7-EA93D3473B79}" name="HTML" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E36F0734-B75F-42EA-8B6A-30D2C867766D}" name="CSS" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{854C3542-D24F-4042-9AE0-E066EB06DE43}" name="JS" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B3868164-4A8C-4DED-92C9-2E34067CD701}" name="Total" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2464,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8927EC-BC97-4DC3-9498-E2183903979F}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,8 +2556,8 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(B$4:B$31)</f>
-        <v>6.6100823045267473E-2</v>
+        <f>AVERAGE(B$4:B$35)</f>
+        <v>6.126792114695339E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2581,8 +2581,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <f>AVERAGE(C$4:C$31)</f>
-        <v>4.2952674897119347E-2</v>
+        <f>AVERAGE(C$4:C$35)</f>
+        <v>4.0120967741935486E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2606,8 +2606,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D$4:D$31)</f>
-        <v>5.3909465020576135E-2</v>
+        <f>AVERAGE(D$4:D$35)</f>
+        <v>5.2643369175627244E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2697,8 +2697,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(B$4:B$31)</f>
-        <v>1.7847222222222219</v>
+        <f>SUM(B$4:B$35)</f>
+        <v>1.8993055555555551</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2722,8 +2722,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(C$4:C$31)</f>
-        <v>1.1597222222222223</v>
+        <f>SUM(C$4:C$35)</f>
+        <v>1.2437500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2747,8 +2747,8 @@
         <v>3</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(D$4:D$31)</f>
-        <v>1.4555555555555557</v>
+        <f>SUM(D$4:D$35)</f>
+        <v>1.6319444444444446</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="H14" s="13">
         <f>SUM(H11+H12+H13)</f>
-        <v>4.4000000000000004</v>
+        <v>4.7750000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2838,8 +2838,8 @@
         <v>11</v>
       </c>
       <c r="H17" s="18">
-        <f>COUNTA(E5:E31)</f>
-        <v>27</v>
+        <f>COUNTA(E5:E35)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="H18" s="19">
         <f ca="1">H19-H17</f>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H19" s="21">
         <f ca="1">TODAY()-A5</f>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" ref="E30" si="3">B30+C30+D30</f>
+        <f t="shared" ref="E30:E35" si="3">B30+C30+D30</f>
         <v>0.16319444444444445</v>
       </c>
     </row>
@@ -3112,8 +3112,80 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E31" s="25">
-        <f t="shared" ref="E31" si="4">B31+C31+D31</f>
+        <f t="shared" ref="E31:E33" si="4">B31+C31+D31</f>
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>44909</v>
+      </c>
+      <c r="B32" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C32" s="25">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D32" s="25">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="3"/>
+        <v>2.9861111111111113E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
+        <v>44913</v>
+      </c>
+      <c r="B33" s="25">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D33" s="25">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="4"/>
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>44914</v>
+      </c>
+      <c r="B34" s="25">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="C34" s="25">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="D34" s="25">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="3"/>
+        <v>0.1701388888888889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>44915</v>
+      </c>
+      <c r="B35" s="25">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C35" s="25">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="D35" s="25">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="3"/>
+        <v>7.8472222222222221E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3197,7 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B31">
+  <conditionalFormatting sqref="B4:B35">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3135,7 +3207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C31">
+  <conditionalFormatting sqref="C4:C35">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3145,7 +3217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D31">
+  <conditionalFormatting sqref="D4:D35">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3155,7 +3227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E31">
+  <conditionalFormatting sqref="E4:E35">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3165,8 +3237,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E31">
-    <cfRule type="aboveAverage" dxfId="15" priority="43"/>
+  <conditionalFormatting sqref="E5:E35">
+    <cfRule type="aboveAverage" dxfId="1" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G21" r:id="rId1" display="Wakatime" xr:uid="{3D343FDD-423F-4C9B-9351-F003B55B9401}"/>
